--- a/1.xlsx
+++ b/1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meticulon Training\2014-03-21 Workfiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>Comments</t>
   </si>
@@ -372,6 +367,9 @@
   </si>
   <si>
     <t>Ability to compare a previous version of a file in the file history with the current version (view side by side)</t>
+  </si>
+  <si>
+    <t>blablabla</t>
   </si>
 </sst>
 </file>
@@ -798,9 +796,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -816,6 +811,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1091,7 +1089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,7 +1100,7 @@
   <dimension ref="B2:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,15 +1116,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1237,23 +1235,23 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="29" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1301,50 +1299,52 @@
       <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="18"/>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="29" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1441,21 +1441,21 @@
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>17</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="29">
+      <c r="B43" s="28">
         <v>39</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="30" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="29" t="s">
         <v>111</v>
       </c>
     </row>
